--- a/Datos/Database by set/Set with text box/Xlsx sets/M19 Gift Pack (G18).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/M19 Gift Pack (G18).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,210 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angelic Guardian</t>
+          <t>('Angelic Guardian', ['{4}{W}{W}', 'Creature — Angel', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', 'Whenever one or more creatures you control attack, they gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy them.)', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{W}{W}</t>
+          <t>('Angler Turtle', ['{5}{U}{U}', 'Creature — Turtle', 'Hexproof', 'Creatures your opponents control attack each combat if able.', '5/7'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Angel</t>
+          <t>('Immortal Phoenix', ['{4}{R}{R}', 'Creature — Phoenix', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', 'When Immortal Phoenix dies, return it to its owner’s hand.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
+          <t>('Rampaging Brontodon', ['{5}{G}{G}', 'Creature — Dinosaur', 'Trample', 'Whenever Rampaging Brontodon attacks, it gets +1/+1 until end of turn for each land you control.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Whenever one or more creatures you control attack, they gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy them.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Angler Turtle</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{5}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Turtle</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hexproof</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Creatures your opponents control attack each combat if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Immortal Phoenix</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Phoenix</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>When Immortal Phoenix dies, return it to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>5/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rampaging Brontodon</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{5}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Creature — Dinosaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Whenever Rampaging Brontodon attacks, it gets +1/+1 until end of turn for each land you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>7/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Vengeant Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Lifelink</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>When Vengeant Vampire dies, destroy target creature an opponent controls and you gain 4 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>4/4</t>
+          <t>('Vengeant Vampire', ['{4}{B}{B}', 'Creature — Vampire', 'Lifelink', 'When Vengeant Vampire dies, destroy target creature an opponent controls and you gain 4 life.', '4/4'])</t>
         </is>
       </c>
     </row>
